--- a/data/Chile-Madhura/input_data/storage_technologies.xlsx
+++ b/data/Chile-Madhura/input_data/storage_technologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/Chile-Madhura/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE8A69C-32D5-4772-9052-F98DC5A67CF9}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{333B8E41-8105-4069-B851-E973737207A5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4400" yWindow="-15370" windowWidth="26210" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -613,27 +613,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Erklärender Text" xfId="2" builtinId="53"/>
@@ -918,14 +914,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU16" sqref="AU16"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
@@ -936,7 +932,7 @@
     <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
     <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="14.21875" bestFit="1" customWidth="1"/>
@@ -947,152 +943,152 @@
     <col min="46" max="49" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AW1" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1178,13 +1174,13 @@
       <c r="AA2">
         <v>1.335</v>
       </c>
-      <c r="AB2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="16">
+      <c r="AB2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="12">
         <v>0</v>
       </c>
       <c r="AE2" s="2">
@@ -1285,13 +1281,13 @@
       <c r="M3" s="2">
         <v>6</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>231.69200000000001</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>150.46199999999999</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="12">
         <v>108</v>
       </c>
       <c r="Q3">
@@ -1306,13 +1302,13 @@
       <c r="T3" s="2">
         <v>60</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="4">
         <v>3.9</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="4">
         <v>3.2</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="4">
         <v>2.7</v>
       </c>
       <c r="X3">
@@ -1327,13 +1323,13 @@
       <c r="AA3" s="2">
         <v>2</v>
       </c>
-      <c r="AB3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="15">
+      <c r="AB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12">
         <v>0</v>
       </c>
       <c r="AE3" s="2">
@@ -1348,13 +1344,13 @@
       <c r="AH3" s="2">
         <v>0</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="4">
         <v>20</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="4">
         <v>20</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AK3" s="4">
         <v>20</v>
       </c>
       <c r="AL3">
@@ -1497,25 +1493,25 @@
       <c r="AH4">
         <v>0.2</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4">
         <v>30</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4">
         <v>30</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4">
         <v>30</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4">
         <v>30</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4">
         <v>30</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4">
         <v>30</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AO4">
         <v>30</v>
       </c>
       <c r="AP4" s="2">
@@ -1646,25 +1642,25 @@
       <c r="AH5" s="2">
         <v>0</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5">
         <v>50</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5">
         <v>50</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5">
         <v>50</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5">
         <v>50</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5">
         <v>50</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5">
         <v>50</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AO5">
         <v>50</v>
       </c>
       <c r="AP5" s="2">
@@ -1795,25 +1791,25 @@
       <c r="AH6" s="2">
         <v>0</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6">
         <v>13</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6">
         <v>13</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6">
         <v>13</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AL6">
         <v>13</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AM6">
         <v>13</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AN6">
         <v>13</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AO6">
         <v>13</v>
       </c>
       <c r="AP6" s="2">
@@ -1944,25 +1940,25 @@
       <c r="AH7" s="2">
         <v>0</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7">
         <v>25</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7">
         <v>25</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7">
         <v>25</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AL7">
         <v>30</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AM7">
         <v>30</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AN7">
         <v>30</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AO7">
         <v>30</v>
       </c>
       <c r="AP7" s="2">
@@ -2030,7 +2026,7 @@
       <c r="M8" s="2">
         <v>10000</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>0.14199999999999999</v>
       </c>
       <c r="O8">
@@ -2051,7 +2047,7 @@
       <c r="T8">
         <v>0.14199999999999999</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="10">
         <v>9.9399999999999992E-3</v>
       </c>
       <c r="V8">
@@ -2093,25 +2089,25 @@
       <c r="AH8" s="2">
         <v>0</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="10">
         <v>30</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="10">
         <v>30</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AK8" s="10">
         <v>30</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AL8" s="10">
         <v>30</v>
       </c>
-      <c r="AM8" s="12">
+      <c r="AM8" s="10">
         <v>30</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AN8" s="10">
         <v>30</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AO8" s="10">
         <v>30</v>
       </c>
       <c r="AP8" s="2">
@@ -2139,15 +2135,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-    </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -2182,7 +2169,7 @@
       <c r="U10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AI10" s="1" t="s">
@@ -2196,16 +2183,16 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2214,16 +2201,16 @@
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2232,16 +2219,16 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2256,16 +2243,16 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2288,16 +2275,16 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2306,642 +2293,642 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="6"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="6"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
     </row>
     <row r="33" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
     </row>
     <row r="34" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
     </row>
     <row r="35" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
     </row>
     <row r="36" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="6"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
     </row>
     <row r="37" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
     </row>
     <row r="38" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
     </row>
     <row r="39" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
     </row>
     <row r="40" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
     </row>
     <row r="41" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S42" s="6"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="6"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
     </row>
     <row r="43" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
     </row>
     <row r="44" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
     </row>
     <row r="45" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
     </row>
     <row r="46" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S48" s="6"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="6"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
     </row>
     <row r="50" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
     </row>
     <row r="51" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
     </row>
     <row r="53" spans="19:28" x14ac:dyDescent="0.3">
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
